--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed4/result_data_KNN.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.290000000000001</v>
+        <v>-8.217000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.899999999999999</v>
+        <v>5.478999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.876</v>
+        <v>-8.187999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.978</v>
+        <v>-7.327</v>
       </c>
     </row>
     <row r="12">
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.202</v>
+        <v>5.137</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.433999999999999</v>
+        <v>6.542</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.510000000000002</v>
+        <v>-8.387</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.714</v>
+        <v>-6.681999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.002</v>
+        <v>-7.397</v>
       </c>
     </row>
     <row r="27">
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.640000000000001</v>
+        <v>5.752000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.586</v>
+        <v>-7.685</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.257999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.630000000000001</v>
+        <v>-8.013999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.834000000000001</v>
+        <v>-7.495</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.672000000000001</v>
+        <v>-8.35</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.888</v>
+        <v>-7.979000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1362,7 +1362,7 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.417999999999999</v>
+        <v>-7.351000000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.834000000000001</v>
+        <v>-7.419999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.75</v>
+        <v>5.755000000000001</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.004</v>
+        <v>6.545</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,13 +1524,13 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.186</v>
+        <v>8.409000000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.348000000000003</v>
+        <v>-8.141999999999999</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.07</v>
+        <v>-8.107999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.098000000000001</v>
+        <v>5.457</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.996</v>
+        <v>5.529999999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.965999999999999</v>
+        <v>5.575</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.359999999999999</v>
+        <v>-8.253</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.843999999999999</v>
+        <v>-7.647</v>
       </c>
     </row>
     <row r="105">
